--- a/Documents/References.xlsx
+++ b/Documents/References.xlsx
@@ -1,25 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14986366-3B8F-4251-99F3-3F185821DF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -35,11 +69,14 @@
   <si>
     <t>Published Year</t>
   </si>
+  <si>
+    <t>Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,18 +116,18 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,108 +420,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="1" t="e" cm="1">
+        <f t="array" ref="E4">- Test pull request</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/References.xlsx
+++ b/Documents/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14986366-3B8F-4251-99F3-3F185821DF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DBF97A-1B03-40FF-BD43-BAF8ACF412F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,30 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -70,14 +48,165 @@
     <t>Published Year</t>
   </si>
   <si>
-    <t>Test</t>
+    <r>
+      <t>Bhoyar, K., Avatade, M., Gavhane, M. S., &amp; Bhoyar, K. (2018). Smart parking system using IoT and cloud computing. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>International Journal of Creative Research Thoughts (IJCRT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(2), 1317-1320.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mohamed, O., Abdelkarim, A., Youssef, A., Ashraf, H., Essam, A. S., Atef, S., &amp; Salim, M. M. (2021, August). IoT Based Smart Parking System. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>The International Undergraduate Research Conference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> (Vol. 5, No. 5, pp. 355-360). The Military Technical College.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Vấn đề 
+- Big Data và IoT: Các thành phố lớn có thể truy cập thông tin từ bất kỳ thiết bị nào
+- Thành phố theo dõi số liệu trong thời gian thực --&gt; mức độ dịch vụ tăng  
+- Hệ thống đỗ xe thông min: cung cấp thông tin về chỗ trống và lịch trình vận chuyển, đặt chỗ và trả tiền gửi xe
+2. Điểm mới
+- Mobile application: quản lý qui trình đỗ xe (đăng ký, theo dõi chỗ trống và bận, tính phí, ...)
+- Application enablement platform: dịch vụ cơ bản (giao tiếp, lưu trữ dữ liệu, quản lý, xây dựng ứng dụng và phân tích)
+- NodeMCU và IR sensor: phát hiện trạng thái đỗ xe bằng cảm biến laser
+- Rasberry Pi Zero W: quét mã QR và quản lý cổng đỗ xe
+- Message Queuing Telemetry Transport protocol: truyền dữ liệu giữa các thiết bị qua wifi, bluetooth hoặc mạng rộng theo chuẩn TCP</t>
+  </si>
+  <si>
+    <r>
+      <t>Jabbar, W. A., Wei, C. W., Azmi, N. A. A. M., &amp; Haironnazli, N. A. (2021). An IoT Raspberry Pi-based parking management system for smart campus. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Internet of Things</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, 100387.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Vấn đề 
+- Bãi đỗ xe ở các khu vực công cộng (trường học, bệnh viện, trung tâm mua sắm, ...) quá tải --&gt; lãng phí thời gian
+- Thông tin về các điểm đổ xe không cập nhật, lưu trữ cực bộ và không được chia sẻ cho tài xế
+- Thiếu nền tảng thống nhất để quản lý bãi xe
+2. Điểm mới
+- Raspberry Pi 4 B+: cập nhật thông tin lên nền tảng IoT
+- Pi camera và GPS sensor: phát hiện hình ảnh và theo dõi vị trí
+- Python algorithms: thu thập dữ liệu cảm biến và gửi đến Blynk IoT theo thời gian thực
+và hiển thị trên di động của người dùng</t>
+  </si>
+  <si>
+    <t>1. Vấn đề 
+- Tắc nghẽn giao thông và khó khăn khi tìm kiếm bãi đỗ xe
+- Hỗ trợ của mạng không dây (RFID, Zigbee, wirless mess network): cung cấp thông tin về chỗ đậu xe gần nhất và đặt chỗ sớm bằng các thiết bị thông minh
+2. Điểm mới
+- Car Park Network architecture: các router là cơ sở hạ tầng cho các máy khách kết nối
+- The Neighbor Table of Nodes: tính toán khoảng cách giữa hai nút, nếu một nút đã đầy thì được chuyển đến nút lân cận 
+- Arduino: có thể thay thế bằng Rasberry Pi nếu muốn tăng chức năng
+- LDR sensor: có thể thay thế bằng cảm biến âm thanh
+- Tính bảo mật ở lớp socket về bảo vệ dữ liệu và xác thực người dùng còn thấp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +221,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -124,6 +268,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,19 +563,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -432,7 +589,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -447,95 +604,121 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="1" t="e" cm="1">
-        <f t="array" ref="E4">- Test pull request</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documents/References.xlsx
+++ b/Documents/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DBF97A-1B03-40FF-BD43-BAF8ACF412F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B445CC2B-2F87-4020-A9CA-4BD71CCA178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,33 +681,25 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>

--- a/Documents/References.xlsx
+++ b/Documents/References.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B445CC2B-2F87-4020-A9CA-4BD71CCA178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA1CE9-2C90-4F96-A062-EB17BAEABB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,110 @@
 - Arduino: có thể thay thế bằng Rasberry Pi nếu muốn tăng chức năng
 - LDR sensor: có thể thay thế bằng cảm biến âm thanh
 - Tính bảo mật ở lớp socket về bảo vệ dữ liệu và xác thực người dùng còn thấp</t>
+  </si>
+  <si>
+    <r>
+      <t>Torad, M. A., Bouallegue, B., Khattab, M. M., &amp; Ahmed, A. M. (2022). Smart garage utilizing internet of things (IoT). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Journal of Sensors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(1), 9070683.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Vấn đề
+- Hệ thống đỗ xe thông minh -&gt; giảm chi phí thuê nhân viên
+- Xác định vị trí đổ xe: thủ công, tốn nhiều thời gian; với những thành phố có mật độ xe cao -&gt; không tìm được bãi đỗ xe
+- Kết nối xe với cơ sở hạ tầng (nhận dạng RFID, Zigbee, wireless)
+2. Điểm mới
+- Cảm biến siêu âm: phát hiện các chỗ đậu xe trống
+- Liên kết thông tin người dùng với CSDL Cloud -&gt; tính toàn vẹn dữ liệu
+- Hệ thống IoT -&gt; giảm thiểu chi phí</t>
+  </si>
+  <si>
+    <r>
+      <t>Hanumanthakari, S. (2024). Intelligent and real-time Parking System. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>E3S Web of Conferences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t> (Vol. 472, p. 03003). EDP Sciences.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Vấn đề
+- Dân số và gia tăng giao thông -&gt; tắc nghẽn, thiếu bãi đỗ xe và an toàn đường bộ
+- Bất tiện khi bãi đỗ xe đầy
+- Hệ thống đề xuất đỗ xe dựa trên điều hướng và đặt trước -&gt; xác định vị trí đỗ gần nhất với vị trị hiện tại của người dùng
+- Kết hợp IoT, điện toán đám mây và mạng cảm biến
+2. Điểm mới
+- Web/Ứng dụng di động: giao diện đơn giản và thân thiện với người dùng/ cung cấp thông tin cơ bản về các bãi đỗ xe, tình trạng sẵn có và đặt chỗ đỗ trước
+- Mô hình IoT: sử dụng RFID, cảm biến
+- Dữ liệu: MySQL được tạo trên local server và lưu trữ bằng node.js trên global platform --&gt; kết nối dữ liệu giữa các thiết bị IoT</t>
+  </si>
+  <si>
+    <t>1. Vấn đề
+- Hệ thống đỗ xe sử dụng IoT và xử lý dữ liệu thời gian thực nhưng không có hệ thống thanh toán (đỗ xe trả phí)
+- Hệ thống đỗ xe sử dụng cặp phát - nhận tia hồng ngoại và gửi trạng thái đỗ xe đến Raspberry Pi -&gt; hiện thị trên màn hình tại lỗi vào của bãi xe nhưng không kiểm soát được người sử dụng thẻ
+- Hệ thống đỗ xe dưới lòng đất: cơ chế xích và bánh răng -&gt; tối ưu bãi đỗ xe nhưng hệ thống chỉ sử dụng tại các địa điểm có bãi đỗ xe dưới lòng đất
+2. Điểm mới
+- Cảm biến hồng ngoại (IR sensor) -&gt; phát hiện xe
+- NodeMCU ESP8266 -&gt; giám sát các vị trí đỗ xe
+- Ứng dụng điện thoại -&gt; đăng nhập, tìm bãi đỗ, đặt chỗ, ví thanh toán</t>
   </si>
 </sst>
 </file>
@@ -563,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,29 +760,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
